--- a/Result/check3/2025-03-28.xlsx
+++ b/Result/check3/2025-03-28.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>31341</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.44</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.03</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-6.67</t>
+          <t>-18.52</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>681</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-8.33</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>180.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>6670</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>530.0</t>
+          <t>582.5</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2224</t>
+          <t>7287</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1449</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
